--- a/Errores_2020MMDD-2020MMDD.xlsx
+++ b/Errores_2020MMDD-2020MMDD.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822F2A13-2742-8649-9D2D-0E2B63756F7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9600" tabRatio="717"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="51200" windowHeight="26760" tabRatio="717" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -24,9 +25,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Availability_nube!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">OrderCancel!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">OrderChange!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">OrderCreate!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">OrderCreate!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +36,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{AC66E7A2-A410-424E-A8C8-44BFD5699540}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Autor:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Versión del servicio.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
   <si>
     <t>FECHA ERROR</t>
   </si>
@@ -96,6 +130,9 @@
   </si>
   <si>
     <t>IBPay</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
   <si>
     <t>DD/MM/2020</t>
@@ -104,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +157,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -160,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -187,130 +230,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -673,45 +725,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1" collapsed="1"/>
     <col min="5" max="6" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="1.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.140625" style="10" collapsed="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="1.1640625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.1640625" style="10" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -750,119 +802,119 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="24"/>
+        <v>21</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+        <v>21</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="65"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="54"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="76"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="66"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="55"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="77"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="67"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -917,26 +969,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="114.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="128.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="114.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="128.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,23 +1017,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="144.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="144.1640625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="105.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="105.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,26 +1062,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="27" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="115" style="3" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="7" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="221.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.83203125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="221.6640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,26 +1111,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="144.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="105.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="144.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="105.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,23 +1159,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="144.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="105.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="144.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="105.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,26 +1204,80 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="3.83203125" style="56" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="107.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="244.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="107.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="244.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="90.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="118.5" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,166 +1306,117 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="144.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="125.83203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="144.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="83" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="90.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="118.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="129.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="134.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="144.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="125.85546875" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="144.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="83" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="129.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="134.5703125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
